--- a/public/templates/template_aset_tanah - Copy.xlsx
+++ b/public/templates/template_aset_tanah - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\bismillah_sip_aset\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF8BF0F-D4A4-4AFC-8B41-DC0419FF1EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773F2E6E-0896-4000-AE95-4B039FAB0216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D3132774-63BF-4FC5-AB2E-A8A60F82D1E5}"/>
   </bookViews>
@@ -261,16 +261,16 @@
     <t xml:space="preserve">02.01.0008	</t>
   </si>
   <si>
-    <t xml:space="preserve">02.01.0009	</t>
-  </si>
-  <si>
-    <t>02.01.0010</t>
-  </si>
-  <si>
     <t xml:space="preserve">02.01.0011	</t>
   </si>
   <si>
-    <t xml:space="preserve">02.01.0012	</t>
+    <t xml:space="preserve">02.01.0001	</t>
+  </si>
+  <si>
+    <t>02.01.0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.01.0010	</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -746,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -784,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -822,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -860,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -898,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -936,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
@@ -1012,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
         <v>67</v>

--- a/public/templates/template_aset_tanah - Copy.xlsx
+++ b/public/templates/template_aset_tanah - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\bismillah_sip_aset\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773F2E6E-0896-4000-AE95-4B039FAB0216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE593551-72E2-43FB-83A3-A4BD481FBCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D3132774-63BF-4FC5-AB2E-A8A60F82D1E5}"/>
   </bookViews>
@@ -81,168 +81,66 @@
     <t xml:space="preserve">02.01.0002	</t>
   </si>
   <si>
-    <t>Tanah PB 1</t>
-  </si>
-  <si>
-    <t>Milik Pak Aribawa</t>
-  </si>
-  <si>
-    <t>Jalan Prabubima 1</t>
-  </si>
-  <si>
-    <t>Kantor PB 1</t>
-  </si>
-  <si>
-    <t>Tanah PB 2</t>
-  </si>
-  <si>
     <t>23/11/2024</t>
   </si>
   <si>
-    <t>Jalan Prabubima 2</t>
-  </si>
-  <si>
     <t>21/08/1996</t>
   </si>
   <si>
-    <t>Kantor PB 2</t>
-  </si>
-  <si>
-    <t>Tanah PB 3</t>
-  </si>
-  <si>
     <t>23/11/2025</t>
   </si>
   <si>
-    <t>Jalan Prabubima 3</t>
-  </si>
-  <si>
     <t>21/08/1997</t>
   </si>
   <si>
-    <t>Kantor PB 3</t>
-  </si>
-  <si>
-    <t>Tanah PB 4</t>
-  </si>
-  <si>
     <t>23/11/2026</t>
   </si>
   <si>
-    <t>Jalan Prabubima 4</t>
-  </si>
-  <si>
     <t>21/08/1998</t>
   </si>
   <si>
-    <t>Kantor PB 4</t>
-  </si>
-  <si>
-    <t>Tanah PB 5</t>
-  </si>
-  <si>
     <t>23/11/2027</t>
   </si>
   <si>
-    <t>Jalan Prabubima 5</t>
-  </si>
-  <si>
     <t>21/08/1999</t>
   </si>
   <si>
-    <t>Kantor PB 5</t>
-  </si>
-  <si>
-    <t>Tanah PB 6</t>
-  </si>
-  <si>
     <t>23/11/2028</t>
   </si>
   <si>
-    <t>Jalan Prabubima 6</t>
-  </si>
-  <si>
     <t>21/08/2000</t>
   </si>
   <si>
-    <t>Kantor PB 6</t>
-  </si>
-  <si>
-    <t>Tanah PB 7</t>
-  </si>
-  <si>
     <t>23/11/2029</t>
   </si>
   <si>
-    <t>Jalan Prabubima 7</t>
-  </si>
-  <si>
     <t>21/08/2001</t>
   </si>
   <si>
-    <t>Kantor PB 7</t>
-  </si>
-  <si>
-    <t>Tanah PB 8</t>
-  </si>
-  <si>
     <t>23/11/2030</t>
   </si>
   <si>
-    <t>Jalan Prabubima 8</t>
-  </si>
-  <si>
     <t>21/08/2002</t>
   </si>
   <si>
-    <t>Kantor PB 8</t>
-  </si>
-  <si>
-    <t>Tanah PB 9</t>
-  </si>
-  <si>
     <t>23/11/2031</t>
   </si>
   <si>
-    <t>Jalan Prabubima 9</t>
-  </si>
-  <si>
     <t>21/08/2003</t>
   </si>
   <si>
-    <t>Kantor PB 9</t>
-  </si>
-  <si>
-    <t>Tanah PB 10</t>
-  </si>
-  <si>
     <t>23/11/2032</t>
   </si>
   <si>
-    <t>Jalan Prabubima 10</t>
-  </si>
-  <si>
     <t>21/08/2004</t>
   </si>
   <si>
-    <t>Kantor PB 10</t>
-  </si>
-  <si>
-    <t>Tanah PB 11</t>
-  </si>
-  <si>
     <t>23/11/2033</t>
   </si>
   <si>
-    <t>Jalan Prabubima 11</t>
-  </si>
-  <si>
     <t>21/08/2005</t>
   </si>
   <si>
-    <t>Kantor PB 11</t>
-  </si>
-  <si>
     <t xml:space="preserve">02.01.0003	</t>
   </si>
   <si>
@@ -271,6 +169,108 @@
   </si>
   <si>
     <t xml:space="preserve">02.01.0010	</t>
+  </si>
+  <si>
+    <t>Tanah Lapangan 1</t>
+  </si>
+  <si>
+    <t>Tanah Lapangan 2</t>
+  </si>
+  <si>
+    <t>Tanah Lapangan 3</t>
+  </si>
+  <si>
+    <t>Tanah Lapangan 4</t>
+  </si>
+  <si>
+    <t>Tanah Lapangan 5</t>
+  </si>
+  <si>
+    <t>Tanah Lapangan 6</t>
+  </si>
+  <si>
+    <t>Tanah Lapangan 7</t>
+  </si>
+  <si>
+    <t>Tanah Lapangan 8</t>
+  </si>
+  <si>
+    <t>Tanah Lapangan 9</t>
+  </si>
+  <si>
+    <t>Tanah Lapangan 10</t>
+  </si>
+  <si>
+    <t>Tanah Lapangan 11</t>
+  </si>
+  <si>
+    <t>Jalan Gerilya 1</t>
+  </si>
+  <si>
+    <t>Jalan Gerilya 2</t>
+  </si>
+  <si>
+    <t>Jalan Gerilya 3</t>
+  </si>
+  <si>
+    <t>Jalan Gerilya 4</t>
+  </si>
+  <si>
+    <t>Jalan Gerilya 5</t>
+  </si>
+  <si>
+    <t>Jalan Gerilya 6</t>
+  </si>
+  <si>
+    <t>Jalan Gerilya 7</t>
+  </si>
+  <si>
+    <t>Jalan Gerilya 8</t>
+  </si>
+  <si>
+    <t>Jalan Gerilya 9</t>
+  </si>
+  <si>
+    <t>Jalan Gerilya 10</t>
+  </si>
+  <si>
+    <t>Jalan Gerilya 11</t>
+  </si>
+  <si>
+    <t>Tempat Olahraga 1</t>
+  </si>
+  <si>
+    <t>Tempat Olahraga 2</t>
+  </si>
+  <si>
+    <t>Tempat Olahraga 3</t>
+  </si>
+  <si>
+    <t>Tempat Olahraga 4</t>
+  </si>
+  <si>
+    <t>Tempat Olahraga 5</t>
+  </si>
+  <si>
+    <t>Tempat Olahraga 6</t>
+  </si>
+  <si>
+    <t>Tempat Olahraga 7</t>
+  </si>
+  <si>
+    <t>Tempat Olahraga 8</t>
+  </si>
+  <si>
+    <t>Tempat Olahraga 9</t>
+  </si>
+  <si>
+    <t>Tempat Olahraga 10</t>
+  </si>
+  <si>
+    <t>Tempat Olahraga 11</t>
+  </si>
+  <si>
+    <t>Milik Pemda BMS</t>
   </si>
 </sst>
 </file>
@@ -646,21 +646,21 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -708,10 +708,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -720,7 +720,7 @@
         <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -732,13 +732,13 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="K2">
         <v>200000</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -749,34 +749,34 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="K3">
         <v>200001</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -784,37 +784,37 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="K4">
         <v>200002</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -822,37 +822,37 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="K5">
         <v>200003</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -860,37 +860,37 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="K6">
         <v>200004</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -898,37 +898,37 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="K7">
         <v>200005</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -936,37 +936,37 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="K8">
         <v>200006</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -974,37 +974,37 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="K9">
         <v>200007</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1012,37 +1012,37 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="K10">
         <v>200008</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1050,37 +1050,37 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="K11">
         <v>200009</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1088,13 +1088,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>134</v>
@@ -1106,19 +1106,19 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K12">
         <v>200010</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/public/templates/template_aset_tanah - Copy.xlsx
+++ b/public/templates/template_aset_tanah - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\bismillah_sip_aset\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE593551-72E2-43FB-83A3-A4BD481FBCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA98C0D-3327-4A04-A260-660FC955C9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D3132774-63BF-4FC5-AB2E-A8A60F82D1E5}"/>
   </bookViews>
@@ -171,12 +171,6 @@
     <t xml:space="preserve">02.01.0010	</t>
   </si>
   <si>
-    <t>Tanah Lapangan 1</t>
-  </si>
-  <si>
-    <t>Tanah Lapangan 2</t>
-  </si>
-  <si>
     <t>Tanah Lapangan 3</t>
   </si>
   <si>
@@ -204,12 +198,6 @@
     <t>Tanah Lapangan 11</t>
   </si>
   <si>
-    <t>Jalan Gerilya 1</t>
-  </si>
-  <si>
-    <t>Jalan Gerilya 2</t>
-  </si>
-  <si>
     <t>Jalan Gerilya 3</t>
   </si>
   <si>
@@ -237,12 +225,6 @@
     <t>Jalan Gerilya 11</t>
   </si>
   <si>
-    <t>Tempat Olahraga 1</t>
-  </si>
-  <si>
-    <t>Tempat Olahraga 2</t>
-  </si>
-  <si>
     <t>Tempat Olahraga 3</t>
   </si>
   <si>
@@ -271,6 +253,24 @@
   </si>
   <si>
     <t>Milik Pemda BMS</t>
+  </si>
+  <si>
+    <t>Jl. Prof. Dr. Suharso No 58 Purwokerto</t>
+  </si>
+  <si>
+    <t>Kantor Sekretariat</t>
+  </si>
+  <si>
+    <t>Tanah Kwarcab 2</t>
+  </si>
+  <si>
+    <t>Tanah Kwarcab 1</t>
+  </si>
+  <si>
+    <t>Desa Kaliori Kec. Kalibagor</t>
+  </si>
+  <si>
+    <t>Kantor Pusdiklat Pramuka dan Bumi Perkemahan</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFADAA5-72E5-479D-8E65-2F41EB8B7348}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -711,16 +711,16 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>124</v>
+        <v>5114</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -732,13 +732,13 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K2">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -758,7 +758,7 @@
         <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -770,13 +770,13 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K3">
-        <v>200001</v>
+        <v>564100000</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -796,7 +796,7 @@
         <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -808,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K4">
-        <v>200002</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -834,7 +834,7 @@
         <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -846,13 +846,13 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K5">
-        <v>200003</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -872,7 +872,7 @@
         <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -884,13 +884,13 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <v>200004</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -910,7 +910,7 @@
         <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -922,13 +922,13 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>75</v>
-      </c>
-      <c r="K7">
-        <v>200005</v>
-      </c>
-      <c r="L7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -948,7 +948,7 @@
         <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -960,13 +960,13 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K8">
-        <v>200006</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -986,7 +986,7 @@
         <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -998,13 +998,13 @@
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K9">
-        <v>200007</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
@@ -1024,7 +1024,7 @@
         <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -1036,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K10">
-        <v>200008</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -1062,7 +1062,7 @@
         <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1074,13 +1074,13 @@
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K11">
-        <v>200009</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1091,7 +1091,7 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
@@ -1100,7 +1100,7 @@
         <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1112,13 +1112,13 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K12">
-        <v>200010</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
